--- a/media/eb_order/eb_order_lump.xlsx
+++ b/media/eb_order/eb_order_lump.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22026"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\ebusiness.old\media\eb_order\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BAF6A4D-072E-45DD-9EBD-BB0261724F75}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7065"/>
+    <workbookView xWindow="3672" yWindow="660" windowWidth="14040" windowHeight="11100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="4" r:id="rId1"/>
@@ -62,16 +68,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>株式会社イー・ビジネス</t>
-    <rPh sb="0" eb="2">
-      <t>カブシキ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>カイシャ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>下記の通り注文致しますので、ご了承の上、折り返し請書をご送付ください。</t>
     <rPh sb="0" eb="2">
       <t>カキ</t>
@@ -206,28 +202,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>東京都港区芝2-28-8芝2丁目ビル10階</t>
-    <rPh sb="0" eb="3">
-      <t>トウキョウト</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ミナトク</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>シバ</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>シバ</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>チョウメ</t>
-    </rPh>
-    <rPh sb="20" eb="21">
-      <t>カイ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>及び納入場所</t>
     <rPh sb="0" eb="1">
       <t>オヨ</t>
@@ -314,13 +288,33 @@
   </si>
   <si>
     <t>{$ALLOWANCE_BASE_TOTAL$}</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>株式会社Wisdom Technology</t>
+    <rPh sb="0" eb="4">
+      <t>カブシキガイシャ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>東京都千代田区岩本町3-5-2 THE GATE AKIHABARA 202号</t>
+    <rPh sb="0" eb="3">
+      <t>トウキョウト</t>
+    </rPh>
+    <rPh sb="3" eb="7">
+      <t>チヨダク</t>
+    </rPh>
+    <rPh sb="7" eb="10">
+      <t>イワモトチョウ</t>
+    </rPh>
     <phoneticPr fontId="3"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="6" formatCode="&quot;¥&quot;#,##0;[Red]&quot;¥&quot;\-#,##0"/>
   </numFmts>
@@ -719,35 +713,35 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1022,41 +1016,41 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I40"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection sqref="A1:H1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="18.625" customWidth="1"/>
-    <col min="2" max="2" width="11.125" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="11.125" customWidth="1"/>
+    <col min="1" max="1" width="18.6640625" customWidth="1"/>
+    <col min="2" max="2" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="11.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="28.5" x14ac:dyDescent="0.15">
-      <c r="A1" s="27" t="s">
+    <row r="1" spans="1:9" ht="28.2" x14ac:dyDescent="0.2">
+      <c r="A1" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="27"/>
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
+      <c r="H1" s="36"/>
       <c r="I1" s="1"/>
     </row>
-    <row r="2" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -1067,7 +1061,7 @@
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
     </row>
-    <row r="3" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4"/>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
@@ -1077,11 +1071,11 @@
         <v>1</v>
       </c>
       <c r="G3" s="22" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H3" s="22"/>
     </row>
-    <row r="4" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
@@ -1091,11 +1085,11 @@
         <v>2</v>
       </c>
       <c r="G4" s="23" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H4" s="23"/>
     </row>
-    <row r="5" spans="1:9" s="8" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:9" s="8" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="7" t="s">
         <v>3</v>
       </c>
@@ -1107,9 +1101,9 @@
       <c r="G5" s="7"/>
       <c r="H5" s="7"/>
     </row>
-    <row r="6" spans="1:9" s="8" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:9" s="8" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="13" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B6" s="7"/>
       <c r="C6" s="7"/>
@@ -1119,7 +1113,7 @@
       <c r="G6" s="7"/>
       <c r="H6" s="7"/>
     </row>
-    <row r="7" spans="1:9" s="8" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:9" s="8" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="7"/>
       <c r="B7" s="7"/>
       <c r="C7" s="7"/>
@@ -1130,40 +1124,40 @@
       <c r="F7" s="7"/>
       <c r="G7" s="7"/>
     </row>
-    <row r="8" spans="1:9" s="8" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:9" s="8" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="7"/>
       <c r="B8" s="7"/>
       <c r="C8" s="7"/>
       <c r="D8" s="7"/>
       <c r="E8" s="7" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F8" s="7"/>
       <c r="G8" s="7"/>
     </row>
-    <row r="9" spans="1:9" s="8" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:9" s="8" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="7"/>
       <c r="B9" s="7"/>
       <c r="C9" s="7"/>
       <c r="D9" s="7"/>
       <c r="E9" s="7" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
     </row>
-    <row r="10" spans="1:9" s="8" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:9" s="8" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="7"/>
       <c r="B10" s="7"/>
       <c r="C10" s="7"/>
       <c r="D10" s="7"/>
       <c r="E10" s="7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F10" s="7"/>
       <c r="G10" s="7"/>
     </row>
-    <row r="11" spans="1:9" s="8" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:9" s="8" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="7"/>
       <c r="B11" s="7"/>
       <c r="C11" s="7"/>
@@ -1182,9 +1176,9 @@
       <c r="G12" s="4"/>
       <c r="H12" s="4"/>
     </row>
-    <row r="13" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
@@ -1204,7 +1198,7 @@
       <c r="G14" s="4"/>
       <c r="H14" s="4"/>
     </row>
-    <row r="15" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:9" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A15" s="4"/>
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
@@ -1214,12 +1208,12 @@
       <c r="G15" s="4"/>
       <c r="H15" s="4"/>
     </row>
-    <row r="16" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:9" ht="24.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B16" s="14" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C16" s="15"/>
       <c r="D16" s="15"/>
@@ -1228,12 +1222,12 @@
       <c r="G16" s="15"/>
       <c r="H16" s="16"/>
     </row>
-    <row r="17" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:8" ht="24.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B17" s="17" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C17" s="10"/>
       <c r="D17" s="10"/>
@@ -1242,12 +1236,12 @@
       <c r="G17" s="10"/>
       <c r="H17" s="11"/>
     </row>
-    <row r="18" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:8" ht="24.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B18" s="17" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C18" s="10"/>
       <c r="D18" s="10"/>
@@ -1256,12 +1250,12 @@
       <c r="G18" s="10"/>
       <c r="H18" s="11"/>
     </row>
-    <row r="19" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:8" ht="24.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B19" s="17" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C19" s="10"/>
       <c r="D19" s="10"/>
@@ -1270,12 +1264,12 @@
       <c r="G19" s="10"/>
       <c r="H19" s="11"/>
     </row>
-    <row r="20" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:8" ht="24.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B20" s="14" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C20" s="15"/>
       <c r="D20" s="15"/>
@@ -1284,12 +1278,12 @@
       <c r="G20" s="15"/>
       <c r="H20" s="16"/>
     </row>
-    <row r="21" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:8" ht="24.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B21" s="18" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C21" s="19"/>
       <c r="D21" s="19"/>
@@ -1298,12 +1292,12 @@
       <c r="G21" s="19"/>
       <c r="H21" s="20"/>
     </row>
-    <row r="22" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:8" ht="24.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B22" s="14" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C22" s="15"/>
       <c r="D22" s="15"/>
@@ -1312,12 +1306,12 @@
       <c r="G22" s="15"/>
       <c r="H22" s="16"/>
     </row>
-    <row r="23" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:8" ht="24.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B23" s="14" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C23" s="15"/>
       <c r="D23" s="15"/>
@@ -1326,15 +1320,15 @@
       <c r="G23" s="15"/>
       <c r="H23" s="16"/>
     </row>
-    <row r="24" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:8" ht="24.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B24" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="B24" s="12" t="s">
-        <v>16</v>
-      </c>
       <c r="C24" s="21" t="s">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="D24" s="15"/>
       <c r="E24" s="15"/>
@@ -1342,15 +1336,15 @@
       <c r="G24" s="15"/>
       <c r="H24" s="16"/>
     </row>
-    <row r="25" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:8" ht="24.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="9" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B25" s="12" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C25" s="21" t="s">
-        <v>5</v>
+        <v>34</v>
       </c>
       <c r="D25" s="15"/>
       <c r="E25" s="15"/>
@@ -1358,7 +1352,7 @@
       <c r="G25" s="15"/>
       <c r="H25" s="16"/>
     </row>
-    <row r="26" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:8" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A26" s="4"/>
       <c r="B26" s="4"/>
       <c r="C26" s="4"/>
@@ -1368,9 +1362,9 @@
       <c r="G26" s="4"/>
       <c r="H26" s="4"/>
     </row>
-    <row r="27" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A27" s="24" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B27" s="25"/>
       <c r="C27" s="25"/>
@@ -1380,119 +1374,119 @@
       <c r="G27" s="25"/>
       <c r="H27" s="26"/>
     </row>
-    <row r="28" spans="1:8" ht="14.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="28" t="s">
-        <v>32</v>
-      </c>
-      <c r="B28" s="29"/>
-      <c r="C28" s="29"/>
-      <c r="D28" s="29"/>
-      <c r="E28" s="29"/>
-      <c r="F28" s="29"/>
-      <c r="G28" s="29"/>
-      <c r="H28" s="30"/>
-    </row>
-    <row r="29" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="31"/>
-      <c r="B29" s="32"/>
-      <c r="C29" s="32"/>
-      <c r="D29" s="32"/>
-      <c r="E29" s="32"/>
-      <c r="F29" s="32"/>
-      <c r="G29" s="32"/>
-      <c r="H29" s="33"/>
-    </row>
-    <row r="30" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="31"/>
-      <c r="B30" s="32"/>
-      <c r="C30" s="32"/>
-      <c r="D30" s="32"/>
-      <c r="E30" s="32"/>
-      <c r="F30" s="32"/>
-      <c r="G30" s="32"/>
-      <c r="H30" s="33"/>
-    </row>
-    <row r="31" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="31"/>
-      <c r="B31" s="32"/>
-      <c r="C31" s="32"/>
-      <c r="D31" s="32"/>
-      <c r="E31" s="32"/>
-      <c r="F31" s="32"/>
-      <c r="G31" s="32"/>
-      <c r="H31" s="33"/>
-    </row>
-    <row r="32" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="31"/>
-      <c r="B32" s="32"/>
-      <c r="C32" s="32"/>
-      <c r="D32" s="32"/>
-      <c r="E32" s="32"/>
-      <c r="F32" s="32"/>
-      <c r="G32" s="32"/>
-      <c r="H32" s="33"/>
-    </row>
-    <row r="33" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="31"/>
-      <c r="B33" s="32"/>
-      <c r="C33" s="32"/>
-      <c r="D33" s="32"/>
-      <c r="E33" s="32"/>
-      <c r="F33" s="32"/>
-      <c r="G33" s="32"/>
-      <c r="H33" s="33"/>
-    </row>
-    <row r="34" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="31"/>
-      <c r="B34" s="32"/>
-      <c r="C34" s="32"/>
-      <c r="D34" s="32"/>
-      <c r="E34" s="32"/>
-      <c r="F34" s="32"/>
-      <c r="G34" s="32"/>
-      <c r="H34" s="33"/>
-    </row>
-    <row r="35" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="31"/>
-      <c r="B35" s="32"/>
-      <c r="C35" s="32"/>
-      <c r="D35" s="32"/>
-      <c r="E35" s="32"/>
-      <c r="F35" s="32"/>
-      <c r="G35" s="32"/>
-      <c r="H35" s="33"/>
-    </row>
-    <row r="36" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="31"/>
-      <c r="B36" s="32"/>
-      <c r="C36" s="32"/>
-      <c r="D36" s="32"/>
-      <c r="E36" s="32"/>
-      <c r="F36" s="32"/>
-      <c r="G36" s="32"/>
-      <c r="H36" s="33"/>
-    </row>
-    <row r="37" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="31"/>
-      <c r="B37" s="32"/>
-      <c r="C37" s="32"/>
-      <c r="D37" s="32"/>
-      <c r="E37" s="32"/>
-      <c r="F37" s="32"/>
-      <c r="G37" s="32"/>
-      <c r="H37" s="33"/>
-    </row>
-    <row r="38" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="34"/>
-      <c r="B38" s="35"/>
-      <c r="C38" s="35"/>
-      <c r="D38" s="35"/>
-      <c r="E38" s="35"/>
-      <c r="F38" s="35"/>
-      <c r="G38" s="35"/>
-      <c r="H38" s="36"/>
-    </row>
-    <row r="39" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:8" ht="14.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="B28" s="28"/>
+      <c r="C28" s="28"/>
+      <c r="D28" s="28"/>
+      <c r="E28" s="28"/>
+      <c r="F28" s="28"/>
+      <c r="G28" s="28"/>
+      <c r="H28" s="29"/>
+    </row>
+    <row r="29" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="30"/>
+      <c r="B29" s="31"/>
+      <c r="C29" s="31"/>
+      <c r="D29" s="31"/>
+      <c r="E29" s="31"/>
+      <c r="F29" s="31"/>
+      <c r="G29" s="31"/>
+      <c r="H29" s="32"/>
+    </row>
+    <row r="30" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="30"/>
+      <c r="B30" s="31"/>
+      <c r="C30" s="31"/>
+      <c r="D30" s="31"/>
+      <c r="E30" s="31"/>
+      <c r="F30" s="31"/>
+      <c r="G30" s="31"/>
+      <c r="H30" s="32"/>
+    </row>
+    <row r="31" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="30"/>
+      <c r="B31" s="31"/>
+      <c r="C31" s="31"/>
+      <c r="D31" s="31"/>
+      <c r="E31" s="31"/>
+      <c r="F31" s="31"/>
+      <c r="G31" s="31"/>
+      <c r="H31" s="32"/>
+    </row>
+    <row r="32" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="30"/>
+      <c r="B32" s="31"/>
+      <c r="C32" s="31"/>
+      <c r="D32" s="31"/>
+      <c r="E32" s="31"/>
+      <c r="F32" s="31"/>
+      <c r="G32" s="31"/>
+      <c r="H32" s="32"/>
+    </row>
+    <row r="33" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="30"/>
+      <c r="B33" s="31"/>
+      <c r="C33" s="31"/>
+      <c r="D33" s="31"/>
+      <c r="E33" s="31"/>
+      <c r="F33" s="31"/>
+      <c r="G33" s="31"/>
+      <c r="H33" s="32"/>
+    </row>
+    <row r="34" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="30"/>
+      <c r="B34" s="31"/>
+      <c r="C34" s="31"/>
+      <c r="D34" s="31"/>
+      <c r="E34" s="31"/>
+      <c r="F34" s="31"/>
+      <c r="G34" s="31"/>
+      <c r="H34" s="32"/>
+    </row>
+    <row r="35" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="30"/>
+      <c r="B35" s="31"/>
+      <c r="C35" s="31"/>
+      <c r="D35" s="31"/>
+      <c r="E35" s="31"/>
+      <c r="F35" s="31"/>
+      <c r="G35" s="31"/>
+      <c r="H35" s="32"/>
+    </row>
+    <row r="36" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="30"/>
+      <c r="B36" s="31"/>
+      <c r="C36" s="31"/>
+      <c r="D36" s="31"/>
+      <c r="E36" s="31"/>
+      <c r="F36" s="31"/>
+      <c r="G36" s="31"/>
+      <c r="H36" s="32"/>
+    </row>
+    <row r="37" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="30"/>
+      <c r="B37" s="31"/>
+      <c r="C37" s="31"/>
+      <c r="D37" s="31"/>
+      <c r="E37" s="31"/>
+      <c r="F37" s="31"/>
+      <c r="G37" s="31"/>
+      <c r="H37" s="32"/>
+    </row>
+    <row r="38" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="33"/>
+      <c r="B38" s="34"/>
+      <c r="C38" s="34"/>
+      <c r="D38" s="34"/>
+      <c r="E38" s="34"/>
+      <c r="F38" s="34"/>
+      <c r="G38" s="34"/>
+      <c r="H38" s="35"/>
+    </row>
+    <row r="39" spans="1:8" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A39" s="4"/>
       <c r="B39" s="4"/>
       <c r="C39" s="4"/>
@@ -1502,7 +1496,7 @@
       <c r="G39" s="4"/>
       <c r="H39" s="4"/>
     </row>
-    <row r="40" spans="1:8" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:8" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A40" s="4"/>
       <c r="B40" s="4"/>
       <c r="C40" s="4"/>
